--- a/QA/Registration.xlsx
+++ b/QA/Registration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\Git\techin-exercises\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B34789-926B-4021-B9E3-C572D65681B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3406FD-F3A6-4857-9137-3C0123AFE72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7978EA43-77D0-4466-A16D-EE2AFC7A854D}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="25110" windowHeight="15090" xr2:uid="{7978EA43-77D0-4466-A16D-EE2AFC7A854D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,25 +498,67 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -525,48 +567,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A804707-1B02-423A-A73C-05E0253112D9}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,14 +937,14 @@
       <c r="G2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -953,17 +953,17 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>1</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17" t="s">
+      <c r="I3" s="31"/>
+      <c r="J3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="7" t="s">
@@ -975,16 +975,16 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="7" t="s">
         <v>21</v>
       </c>
@@ -1005,16 +1005,16 @@
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>3</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="20"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
@@ -1037,50 +1037,50 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1103,7 +1103,7 @@
       <c r="G13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="18" t="s">
         <v>74</v>
       </c>
       <c r="I13" s="6" t="s">
@@ -1120,7 +1120,7 @@
       <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1152,7 +1152,7 @@
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1184,7 +1184,7 @@
       <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1199,7 +1199,7 @@
       <c r="G16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="21" t="s">
         <v>79</v>
       </c>
       <c r="I16" s="6" t="s">
@@ -1216,7 +1216,7 @@
       <c r="A17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1231,7 +1231,7 @@
       <c r="G17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="27" t="s">
         <v>81</v>
       </c>
       <c r="I17" s="6" t="s">
@@ -1302,7 +1302,7 @@
       <c r="A20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1321,19 +1321,19 @@
       <c r="K20" s="6"/>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       <c r="A23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -1358,7 +1358,7 @@
       <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1375,7 +1375,7 @@
       <c r="A25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -1392,7 +1392,7 @@
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -1409,7 +1409,7 @@
       <c r="A27" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -1448,48 +1448,48 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="14"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
     <row r="32" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="F32" s="30" t="s">
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="F32" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="32"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="H33" s="33" t="s">
+      <c r="H33" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="33" t="s">
+      <c r="I33" s="26" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1564,52 +1564,52 @@
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
     </row>
     <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
